--- a/tests/data/Tang_2021_NH3_JSR_phi1.xlsx
+++ b/tests/data/Tang_2021_NH3_JSR_phi1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulvihcr/PycharmProjects/pythonProject/mechsimulator/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31C3C1D-CAE7-E642-B18B-22A506ED7A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF8DCF9-58B8-A244-84A7-670745B46807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18660" yWindow="1300" windowWidth="16580" windowHeight="16600" firstSheet="5" activeTab="12" xr2:uid="{78241C94-D908-5046-A03C-F98961F89C3E}"/>
+    <workbookView xWindow="12480" yWindow="1840" windowWidth="16580" windowHeight="16600" xr2:uid="{78241C94-D908-5046-A03C-F98961F89C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37EF7FA-3036-4343-BAB0-E3F2C1B3E0AA}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,7 +872,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="5">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>29</v>
@@ -2337,7 +2337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8E4B61-5E1A-044C-856B-1EA48B9D5FD5}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
